--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2019.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2019.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.154583045245618</v>
+        <v>1.14777147769928</v>
       </c>
       <c r="B1">
-        <v>2.323966562536744</v>
+        <v>2.676359415054321</v>
       </c>
       <c r="C1">
-        <v>7.616806935303338</v>
+        <v>7.044991016387939</v>
       </c>
       <c r="D1">
-        <v>2.411347457776177</v>
+        <v>2.033244609832764</v>
       </c>
       <c r="E1">
-        <v>1.22774845215068</v>
+        <v>1.14245593547821</v>
       </c>
     </row>
   </sheetData>
